--- a/DateBase/orders/Dang Nguyen_2025-10-15.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-15.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -526,10 +526,99 @@
       <c r="C11" t="str">
         <v>137_凯瑟琳_Catherine_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F11" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F12" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>4</v>
+      </c>
+      <c r="C13" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F13" t="str">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>137_凯瑟琳_Catherine_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F14" t="str">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>5</v>
+      </c>
+      <c r="C15" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F15" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>137_凯瑟琳_Catherine_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F16" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F17" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>6</v>
+      </c>
+      <c r="C18" t="str">
+        <v>108_绣球单瓣深蓝_Hydrangea Dark Blue S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F18" t="str">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F19" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F20" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -587,7 +676,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01410154142206120</v>
+        <v>01410154142206123819222015710030300</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-15.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-15.xlsx
@@ -615,6 +615,9 @@
       <c r="A21" t="str">
         <v>7</v>
       </c>
+      <c r="C21" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen_2025-10-15.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-15.xlsx
@@ -618,6 +618,9 @@
       <c r="C21" t="str">
         <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F21" t="str">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -679,7 +682,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01410154142206123819222015710030300</v>
+        <v>014101541422061238192220157100303030</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-15.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-15.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -622,9 +622,95 @@
         <v>30</v>
       </c>
     </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F22" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F23" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>9_茶色洋桔梗_Tea Color Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F24" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>8</v>
+      </c>
+      <c r="C25" t="str">
+        <v>9_茶色洋桔梗_Tea Color Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F25" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>7_翠绿洋桔梗_Dark Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F27" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F28" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>9</v>
+      </c>
+      <c r="C29" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F29" t="str">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>10</v>
+      </c>
+      <c r="C30" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F30" t="str">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -682,7 +768,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>014101541422061238192220157100303030</v>
+        <v>0141015414220612381922201571003030302030151519101038380</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-15.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-15.xlsx
@@ -707,6 +707,9 @@
       <c r="A31" t="str">
         <v>11</v>
       </c>
+      <c r="C31" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen_2025-10-15.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-15.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -710,10 +710,192 @@
       <c r="C31" t="str">
         <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F31" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F32" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F33" t="str">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>12</v>
+      </c>
+      <c r="C34" t="str">
+        <v>195_闺蜜_Alter Ego_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F34" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F35" t="str">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>209_海洋之歌_Ocean Song_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F36" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>13</v>
+      </c>
+      <c r="C37" t="str">
+        <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F37" t="str">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F38" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>181_月光女神_undefined_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F39" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>263_乡村阳光_undefined_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F40" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>14</v>
+      </c>
+      <c r="C41" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F41" t="str">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>15</v>
+      </c>
+      <c r="C42" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F42" t="str">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>114_绣球孔雀_Hydrangea Peacoke_Hydrangea L._1stem</v>
+      </c>
+      <c r="F43" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>16</v>
+      </c>
+      <c r="C44" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F44" t="str">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F45" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>17</v>
+      </c>
+      <c r="C46" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F46" t="str">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F47" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>18</v>
+      </c>
+      <c r="C48" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F48" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" xml:space="preserve">
+      <c r="C49" t="str" xml:space="preserve">
+        <v xml:space="preserve">509_翠珠粉_Didiscus caeruleus
+pink_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F50" t="str">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -771,7 +953,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0141015414220612381922201571003030302030151519101038380</v>
+        <v>01410154142206123819222015710030303020301515191010383841228131720215781851362060153620930500</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-15.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-15.xlsx
@@ -890,7 +890,7 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-15.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-15.xlsx
@@ -892,6 +892,9 @@
       <c r="A51" t="str">
         <v>19</v>
       </c>
+      <c r="C51" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen_2025-10-15.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-15.xlsx
@@ -895,6 +895,9 @@
       <c r="C51" t="str">
         <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F51" t="str">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -956,7 +959,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01410154142206123819222015710030303020301515191010383841228131720215781851362060153620930500</v>
+        <v>014101541422061238192220157100303030203015151910103838412281317202157818513620601536209305034</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-15.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-15.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -899,9 +899,92 @@
         <v>34</v>
       </c>
     </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>157_流沙_Quicksand_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F52" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>20</v>
+      </c>
+      <c r="C53" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F53" t="str">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>157_流沙_Quicksand_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F54" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F55" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F56" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>21</v>
+      </c>
+      <c r="C58" t="str">
+        <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
+      </c>
+      <c r="F58" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>84_堪培拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F59" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>67_丘比特_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F60" t="str">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>75_爱心_undefined_Gerbera L._10stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -959,7 +1042,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>014101541422061238192220157100303030203015151910103838412281317202157818513620601536209305034</v>
+        <v>01410154142206123819222015710030303020301515191010383841228131720215781851362060153620930503491611410353012160</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-15.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-15.xlsx
@@ -981,6 +981,9 @@
       <c r="C61" t="str">
         <v>75_爱心_undefined_Gerbera L._10stems</v>
       </c>
+      <c r="F61" t="str">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1042,7 +1045,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01410154142206123819222015710030303020301515191010383841228131720215781851362060153620930503491611410353012160</v>
+        <v>01410154142206123819222015710030303020301515191010383841228131720215781851362060153620930503491611410353012167</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-15.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-15.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -985,9 +985,178 @@
         <v>7</v>
       </c>
     </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F62" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>546_绿宝石_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F63" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>46_拉丝橙_Spider orange_Gerbera L._20stems</v>
+      </c>
+      <c r="F64" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>85_摩洛哥_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F65" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>44_拉丝粉_Spider Pink_Gerbera L._20stems</v>
+      </c>
+      <c r="F66" t="str">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>22</v>
+      </c>
+      <c r="C67" t="str">
+        <v>85_摩洛哥_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F67" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>71_霜雪mini_Snowy_Gerbera L._20stems</v>
+      </c>
+      <c r="F68" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>48_香格里拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F69" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="str">
+        <v>77_珍爱mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F70" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="str">
+        <v>43_拉丝红_Spider Red_Gerbera L._20stems</v>
+      </c>
+      <c r="F71" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="str">
+        <v>49_亚丁_Pasta Rosata_Gerbera L._10stems</v>
+      </c>
+      <c r="F72" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>83_布拉格_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F73" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="str">
+        <v>5_绿洋桔梗_Light Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F74" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="str">
+        <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F75" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F76" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>23</v>
+      </c>
+      <c r="C77" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F77" t="str">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>24</v>
+      </c>
+      <c r="C78" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F78" t="str">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F79" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>25</v>
+      </c>
+      <c r="C80" t="str">
+        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F80" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L81"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1045,7 +1214,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01410154142206123819222015710030303020301515191010383841228131720215781851362060153620930503491611410353012167</v>
+        <v>01410154142206123819222015710030303020301515191010383841228131720215781851362060153620930503491611410353012167158205313302030203010102010904520300</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-15.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-15.xlsx
@@ -1153,6 +1153,9 @@
       <c r="C81" t="str">
         <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F81" t="str">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1214,7 +1217,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01410154142206123819222015710030303020301515191010383841228131720215781851362060153620930503491611410353012167158205313302030203010102010904520300</v>
+        <v>014101541422061238192220157100303030203015151910103838412281317202157818513620601536209305034916114103530121671582053133020302030101020109045203050</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-15.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-15.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L96"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1157,9 +1157,139 @@
         <v>50</v>
       </c>
     </row>
+    <row r="82">
+      <c r="C82" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F82" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>26</v>
+      </c>
+      <c r="C83" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F83" t="str">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F84" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" xml:space="preserve">
+      <c r="C85" t="str" xml:space="preserve">
+        <v xml:space="preserve">416_翠珠紫_Didiscus caeruleus
+blue_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F85" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>27</v>
+      </c>
+      <c r="C86" t="str">
+        <v>118_绣球老绿_Hydrangea Garden Lace_Hydrangea L._1stem</v>
+      </c>
+      <c r="F86" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F87" t="str">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" t="str">
+        <v>109_绣球国产绿_Hydrangea Colombia Green (local)_Hydrangea L._1stem</v>
+      </c>
+      <c r="F88" t="str">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="C89" t="str">
+        <v>122_绣球拇指薄荷_Hydrangea_Hydrangea L._1stem</v>
+      </c>
+      <c r="F89" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>28</v>
+      </c>
+      <c r="C90" t="str">
+        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
+      </c>
+      <c r="F90" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="C91" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F91" t="str">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="C92" t="str">
+        <v>402_大飞燕深紫色_delphinium purple_undefined_1bunch</v>
+      </c>
+      <c r="F92" t="str">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="C93" t="str">
+        <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F93" t="str">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="C94" t="str">
+        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
+      </c>
+      <c r="F94" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="C95" t="str">
+        <v>496_大飞燕深蓝色_delphinium dark blue_undefined_1bunch</v>
+      </c>
+      <c r="F95" t="str">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="C96" t="str">
+        <v>387_洋甘菊_Chamomile_undefined_1bunch</v>
+      </c>
+      <c r="F96" t="str">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L81"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L96"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1217,7 +1347,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>014101541422061238192220157100303030203015151910103838412281317202157818513620601536209305034916114103530121671582053133020302030101020109045203050</v>
+        <v>0141015414220612381922201571003030302030151519101038384122813172021578185136206015362093050349161141035301216715820531330203020301010201090452030505753203079503020322221202620</v>
       </c>
     </row>
   </sheetData>
